--- a/cleaned/motilal_oswal_mutual_fund_portfolio.xlsx
+++ b/cleaned/motilal_oswal_mutual_fund_portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name of Instrument</t>
+          <t>name of instrument</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>isin</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rating/Industry</t>
+          <t>coupon</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Yield</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>quantity</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Market Value</t>
+          <t>market value (mkt)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Net Asset Value (NAV)</t>
+          <t>% to net assets (nav)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>yield</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>yield to call (ytc)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>yield to maturity (ytm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Scheme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AmcName</t>
         </is>
@@ -496,21 +511,17 @@
           <t>INE040A01034</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>35741</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>35741</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>619.18</t>
@@ -521,17 +532,20 @@
           <t>0.13271822707666778</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -548,21 +562,17 @@
           <t>INE090A01021</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>33164</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33164</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>399.33</t>
@@ -573,17 +583,20 @@
           <t>0.08559436213217626</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -600,21 +613,17 @@
           <t>INE002A01018</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>31907</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>31907</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>382.92</t>
@@ -625,17 +634,20 @@
           <t>0.08207655226544884</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -652,21 +664,17 @@
           <t>INE009A01021</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>16930</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16930</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>285.73</t>
@@ -677,17 +685,20 @@
           <t>0.061244614514922156</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -704,21 +715,17 @@
           <t>INE397D01024</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>Telecom - Services</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12606</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>12606</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>197.94</t>
@@ -729,17 +736,20 @@
           <t>0.042427551839496216</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -756,21 +766,17 @@
           <t>INE018A01030</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>Construction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5533</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5533</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>175.06</t>
@@ -781,17 +787,20 @@
           <t>0.037522541994159775</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -808,21 +817,17 @@
           <t>INE154A01025</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>43699</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43699</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>172.61</t>
@@ -833,17 +838,20 @@
           <t>0.03699851483819136</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -860,21 +868,17 @@
           <t>INE467B01029</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>4803</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4803</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>167.3</t>
@@ -885,17 +889,20 @@
           <t>0.035860218330115864</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -912,21 +919,17 @@
           <t>INE238A01034</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>13404</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>13404</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>136.12</t>
@@ -937,17 +940,20 @@
           <t>0.029177724991278013</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -964,21 +970,17 @@
           <t>INE237A01028</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>6902</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6902</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>131.34</t>
@@ -989,17 +991,20 @@
           <t>0.02815256885036287</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1016,21 +1021,17 @@
           <t>INE062A01020</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>18088</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>18088</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>124.59</t>
@@ -1041,17 +1042,20 @@
           <t>0.02670541828855336</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1068,21 +1072,17 @@
           <t>INE296A01024</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1316</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1316</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>112.26</t>
@@ -1093,17 +1093,20 @@
           <t>0.02406223097301583</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1120,21 +1123,17 @@
           <t>INE101A01026</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>4161</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4161</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>107.57</t>
@@ -1145,17 +1144,20 @@
           <t>0.023056360841722214</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1172,21 +1174,17 @@
           <t>INE030A01027</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>4173</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4173</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>91.4</t>
@@ -1197,17 +1195,20 @@
           <t>0.019591052600624746</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1224,21 +1225,17 @@
           <t>INE044A01036</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>5073</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5073</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>80.83</t>
@@ -1249,17 +1246,20 @@
           <t>0.01732465067240227</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1276,21 +1276,17 @@
           <t>INE860A01027</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>4975</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4975</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>78.36</t>
@@ -1301,17 +1297,20 @@
           <t>0.016795894075701943</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1328,21 +1327,17 @@
           <t>INE585B01010</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>618</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>618</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>73.83</t>
@@ -1353,17 +1348,20 @@
           <t>0.015824180540036197</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1380,21 +1378,17 @@
           <t>INE733E01010</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>22255</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>22255</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>69.31</t>
@@ -1405,17 +1399,20 @@
           <t>0.01485701735889005</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1432,21 +1429,17 @@
           <t>INE155A01022</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>9852</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9852</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>61.15</t>
@@ -1457,17 +1450,20 @@
           <t>0.013106503863139399</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1484,21 +1480,17 @@
           <t>INE280A01028</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1945</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>59.85</t>
@@ -1509,17 +1501,20 @@
           <t>0.012829155907656455</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1536,21 +1531,17 @@
           <t>INE481G01011</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>536</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>536</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>54.29</t>
@@ -1561,17 +1552,20 @@
           <t>0.011636529508423898</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1588,21 +1582,17 @@
           <t>INE081A01020</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>38946</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>38946</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>53.43</t>
@@ -1613,17 +1603,20 @@
           <t>0.01145335357148115</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1640,21 +1633,17 @@
           <t>INE752E01010</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>21291</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>21291</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>53.41</t>
@@ -1665,17 +1654,20 @@
           <t>0.011447900926823051</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1692,21 +1684,17 @@
           <t>INE849A01020</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>Retailing</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1044</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1044</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>50.65</t>
@@ -1717,17 +1705,20 @@
           <t>0.010856671750065206</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1744,21 +1735,17 @@
           <t>INE918I01026</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2570</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2570</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>48.12</t>
@@ -1769,17 +1756,20 @@
           <t>0.010313931853266196</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1796,21 +1786,17 @@
           <t>INE021A01026</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>Consumer Durables</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2126</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2126</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>46.34</t>
@@ -1821,17 +1807,20 @@
           <t>0.009933119116049188</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1848,21 +1837,17 @@
           <t>INE669C01036</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2984</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2984</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>44.4</t>
@@ -1873,17 +1858,20 @@
           <t>0.009516421402985325</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1900,21 +1888,17 @@
           <t>INE038A01020</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>Non - Ferrous Metals</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>6832</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>6832</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>43.34</t>
@@ -1925,17 +1909,20 @@
           <t>0.009289503417546495</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -1952,21 +1939,17 @@
           <t>INE019A01038</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>4510</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>4510</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>42.88</t>
@@ -1977,17 +1960,20 @@
           <t>0.00919042790919672</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2004,21 +1990,17 @@
           <t>INE263A01024</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>Aerospace &amp; Defense</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>16809</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>16809</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>41.39</t>
@@ -2029,17 +2011,20 @@
           <t>0.00887225086946101</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2056,21 +2041,17 @@
           <t>INE917I01010</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>522</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>522</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>41.25</t>
@@ -2081,17 +2062,20 @@
           <t>0.008842451502467286</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2108,21 +2092,17 @@
           <t>INE213A01029</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>Oil</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>18231</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>18231</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>41.07</t>
@@ -2133,17 +2113,20 @@
           <t>0.008802195043966987</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2160,21 +2143,17 @@
           <t>INE721A01047</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>Finance</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>6569</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6569</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>40.55</t>
@@ -2185,17 +2164,20 @@
           <t>0.008691830245164744</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2212,21 +2194,17 @@
           <t>INE047A01021</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1746</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1746</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>40.27</t>
@@ -2237,17 +2215,20 @@
           <t>0.008632600400909653</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2264,21 +2245,17 @@
           <t>INE522F01014</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>10660</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>10660</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>39.37</t>
@@ -2289,17 +2266,20 @@
           <t>0.00843938899134676</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2316,21 +2296,17 @@
           <t>INE742F01042</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Transport Infrastructure</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>3464</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>3464</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>37.04</t>
@@ -2341,17 +2317,20 @@
           <t>0.00794024238681242</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2368,21 +2347,17 @@
           <t>INE075A01022</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>IT - Software</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>13309</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>13309</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>36.95</t>
@@ -2393,17 +2368,20 @@
           <t>0.007920613101824035</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2420,21 +2398,17 @@
           <t>INE239A01024</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>Food Products</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1683</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1683</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>36.85</t>
@@ -2445,17 +2419,20 @@
           <t>0.007899043662615755</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2472,21 +2449,17 @@
           <t>INE059A01026</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2584</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2584</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>36.37</t>
@@ -2497,17 +2470,20 @@
           <t>0.0077957267797284825</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2524,21 +2500,17 @@
           <t>INE089A01031</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2867</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>32.01</t>
@@ -2549,17 +2521,20 @@
           <t>0.006861232203203801</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2576,21 +2551,17 @@
           <t>INE066A01021</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>647</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>647</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>30.89</t>
@@ -2601,17 +2572,20 @@
           <t>0.0066201221445115425</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2628,21 +2602,17 @@
           <t>INE095A01012</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>Banks</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>3104</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>3104</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>30.73</t>
@@ -2653,17 +2623,20 @@
           <t>0.006587436928063082</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2680,21 +2653,17 @@
           <t>INE795G01014</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>5024</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>5024</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>30.57</t>
@@ -2705,17 +2674,20 @@
           <t>0.006552784871298458</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2732,21 +2704,17 @@
           <t>INE123W01016</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>Insurance</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2103</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>2103</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>30.08</t>
@@ -2757,17 +2725,20 @@
           <t>0.006448264327579077</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2784,21 +2755,17 @@
           <t>INE192A01025</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>3057</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>3057</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>29.46</t>
@@ -2809,17 +2776,20 @@
           <t>0.006314703952465398</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2836,21 +2806,17 @@
           <t>INE437A01024</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>Healthcare Services</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>476</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>476</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>28.81</t>
@@ -2861,17 +2827,20 @@
           <t>0.0061753933130577225</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2888,21 +2857,17 @@
           <t>INE216A01030</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>Food Products</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>554</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>554</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>25.46</t>
@@ -2913,17 +2878,20 @@
           <t>0.005456994384617568</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2940,21 +2908,17 @@
           <t>INE423A01024</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1170</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1170</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>24.52</t>
@@ -2965,17 +2929,20 @@
           <t>0.005256453622638495</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -2992,21 +2959,17 @@
           <t>INE158A01026</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>Automobiles</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>609</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>609</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>22.42</t>
@@ -3017,17 +2980,20 @@
           <t>0.004805190448656533</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
@@ -3044,21 +3010,17 @@
           <t>INE029A01011</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>Petroleum Products</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>9097</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>9097</t>
-        </is>
-      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>21.59</t>
@@ -3069,17 +3031,20 @@
           <t>0.00462712923965889</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Equity  Equity related         Banks 030893573826710136</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>YO01</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Equity &amp; Equity related nan NAN nan nan nan nan nan nan Banks 030893573826710136</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>YO01</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>Motilal Oswal Mutual Fund</t>
         </is>
